--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560363/JX560363_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560363/JX560363_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89322242928</v>
+        <v>45441.83347692576</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1922_1922del']</t>
+          <t>['1970_2054insgcaataagcggtacatgaggacaattgatacgaccggcgtcactaccgaagcccaagaagaacacggggtggtcttgaaccgga', '1910_2036instgagcgaagaggatttatcgagcccgtacgcgtactctattaagtgatgtgcttcttatagtcggtaatgtgcttggtgtccgagttgtctatcttactcaccagggaactgacgatacctaagtc', '1779_1927instgctatcattaagggatctcaatttccctgtatttctatttctaatcatacgcactgcatagtgatgggggttgggaaccgagttaggagtccaacagtactggtaatttgctattctacacctctcggcatggtcgtcgtccatcgg', '1934_2032del', '1961_2106insatcctatgtgctttacaggtacaggtgtattgctccgatgccgattaacttcaactaggagtcacgctgtctagcgcatccgtagtgagtggacgtcccaaaaaatagaacgccggacctctttggccttgacttacagtcggcc']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89322245242</v>
+        <v>45441.83347697052</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['617a&gt;g']</t>
+          <t>['605_652instgccgctcttaagtactgggctcgcgtgccgacaattacgacgctaa', '702_749insctcccaggatctgtggtgaattagggaagccgtagaagttttagaaa', '633_662del', '618_640del', '657_738del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89322248135</v>
+        <v>45441.83347700523</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3605_3608del']</t>
+          <t>['3586_3718del', '3527_3609insgatccagggaaacctcctccatgatggatctacactcaaaacttgacgtaagcaccctcaggccgtagtgggtaattattag', '3544_3650insgaagtagacaagcctgaacggagaagacgttgttgatgaattccgtgacctatcagatcacggttttgtcacgggctccaaaacagcggtacactagatcccgaaa', '3553_3631insacctatatacgtagaaaagcgagattgtgcttctaaggaaggtcgcatggccctatctacagtcccagtggcccttgc', '3557_3687del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.8932225045</v>
+        <v>45441.83347714125</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1902_1904insgt']</t>
+          <t>['1925_1959insatacaggaaaaaggggtgacaggtctcgggagat', '1830_1853del', '1921_2014inscgagctacctccaccttatgtcgtaatctggtgaatctacactgccaaaagagcttaatagcaatgcccaaatgataagtaggcttgacatag', '1945_2042del', '1773_1888inscattttagcatctgaccggtagcttcattcgtcgaattgtttactgctaaaaacctagcgcacaagcgtagcagataaggaggtagtactgcagacgggcaggaccaacgcaagt']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['682_684insgc']</t>
+          <t>['661_764insgacgctcagccgaaacccggtcgataagtacattatcttcggtccgtgtgagcacgtaaccctcgcgttgaattaaactaattataacgaggatggttgcata', '686_745insgtcaaaggtaccgcacttgatggtaccaaggagaatcgcccgtggcaaagactggccac', '644_674del', '629_752del', '664_749insacgcaatctttatataggcatccgttgtgaaactctgctaagtgtgcatgcgatatcttggatggctagacttaagtggaagata']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89322252187</v>
+        <v>45441.83347716946</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1965c&gt;a']</t>
+          <t>['1821_1907del', '1874_1904insctatggccaaatgggtattctctggtgtgc', '1785_1926del', '1818_1894instagctgctaagacgaggctatcctacttccttcttatggaccgagttcctagaatggtctctacccctctatgggg', '1824_1966del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3618_3619del']</t>
+          <t>['3580_3714del', '3614_3741del', '3586_3730del', '3538_3598del', '3550_3570del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89322254507</v>
+        <v>45441.83347719254</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['672_676insatgt']</t>
+          <t>['631_733del', '622_643del', '690_718del', '621_694del', '609_751insgtgttctctgaatgctaagtaagttatgagccaggagaagttcgacacctagtgtgtagataagggattgggaagctgcaggcatggtacgtcaagtcatcaccggattgtatctctgattcggtgatcatagtttctcaag']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3568_3572instttt']</t>
+          <t>['3583_3642insagattgcctatagtggaaattctacggatggatggtcgaggttgctgccgttcggttaa', '3545_3620insagcgttgtctttacaatatatgtttacgttagattgccgactaggggcagggaatcgtgttgaaaagtctaccgt', '3606_3619instcctcgccgccat', '3549_3590insgaaagagtctcagtactcaccacggttaaactatctgactc', '3599_3712del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89322256242</v>
+        <v>45441.83347722726</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1981a&gt;g']</t>
+          <t>['1845_1947del', '1877_1903inscccatcacacaccactgcagatgagg', '1802_1908insaccatgcgatcgtgtcgagcgctaacctatcggtacctcagaagcctatatgatgatagtgtaggtccattggaagtcccagtggcttccagatatgaggatccac', '1955_2069del', '1933_2081inscattatttttggagtgattccagcggagagttctttgataagacgcggtcaccacccaaccgcgtaatttggtggaacattcgacacgtgctaaaggcctcagcacataatgcattatcggccaggtttcagtagctgatcaagatgc']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['641_641del']</t>
+          <t>['636_669del', '670_798insctcaataatgcagcgagggagatatgacggttacatatcgaactaagatatcacgggggtggtagagtctatcgactacgaccaagcgtgcggctcattttttcgtccgcgttgatcatcgcacaaga', '632_648del', '647_674del', '626_749del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3601_3605insccag']</t>
+          <t>['3528_3584insgtgatcgcttctcacccaggtcgggagctaccagtgaggcttcactaccattacgt', '3549_3636insatagtatgagaaccgctcccgccttctactggcacgtcgttcaaagtaggacgcgtggcttaggcctggtcccacatagatgatgct', '3542_3662inscactttcctatgtaggcacaagcctctcaggagtctagacgttggtgacgcgagaacccattagaacgtagagcctccgctttgggagtcaacggaccccactccagcaacgcagacaaa', '3556_3585instagctctgaggaaatagtatttccacaag', '3620_3683del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89322257975</v>
+        <v>45441.83347725042</v>
       </c>
     </row>
   </sheetData>
